--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Camp-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Camp-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05478866666666667</v>
+        <v>0.023517</v>
       </c>
       <c r="H2">
-        <v>0.164366</v>
+        <v>0.070551</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.006255666666667</v>
+        <v>0.050657</v>
       </c>
       <c r="N2">
-        <v>3.018767</v>
+        <v>0.151971</v>
       </c>
       <c r="O2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="P2">
-        <v>0.03991953272530977</v>
+        <v>0.002123644810648064</v>
       </c>
       <c r="Q2">
-        <v>0.05513140630244445</v>
+        <v>0.001191300669</v>
       </c>
       <c r="R2">
-        <v>0.496182656722</v>
+        <v>0.010721706021</v>
       </c>
       <c r="S2">
-        <v>0.03991953272530977</v>
+        <v>0.0006377795776211664</v>
       </c>
       <c r="T2">
-        <v>0.03991953272530977</v>
+        <v>0.0006377795776211664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05478866666666667</v>
+        <v>0.023517</v>
       </c>
       <c r="H3">
-        <v>0.164366</v>
+        <v>0.070551</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.646551333333334</v>
+        <v>1.006255666666667</v>
       </c>
       <c r="N3">
-        <v>22.939654</v>
+        <v>3.018767</v>
       </c>
       <c r="O3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="P3">
-        <v>0.3033491053003704</v>
+        <v>0.0421842909114609</v>
       </c>
       <c r="Q3">
-        <v>0.4189443521515556</v>
+        <v>0.023664114513</v>
       </c>
       <c r="R3">
-        <v>3.770499169364</v>
+        <v>0.212977030617</v>
       </c>
       <c r="S3">
-        <v>0.3033491053003704</v>
+        <v>0.01266891671566757</v>
       </c>
       <c r="T3">
-        <v>0.3033491053003704</v>
+        <v>0.01266891671566757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -658,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05478866666666667</v>
+        <v>0.023517</v>
       </c>
       <c r="H4">
-        <v>0.164366</v>
+        <v>0.070551</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3003230928370446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +679,338 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.55429333333333</v>
+        <v>18.813815</v>
       </c>
       <c r="N4">
-        <v>49.66287999999999</v>
+        <v>56.441445</v>
       </c>
       <c r="O4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="P4">
-        <v>0.6567313619743199</v>
+        <v>0.7887135162611822</v>
       </c>
       <c r="Q4">
-        <v>0.9069876593422221</v>
+        <v>0.442444487355</v>
       </c>
       <c r="R4">
-        <v>8.16288893408</v>
+        <v>3.982000386195</v>
       </c>
       <c r="S4">
-        <v>0.6567313619743199</v>
+        <v>0.2368688825659389</v>
       </c>
       <c r="T4">
-        <v>0.6567313619743199</v>
+        <v>0.2368688825659389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.023517</v>
+      </c>
+      <c r="H5">
+        <v>0.070551</v>
+      </c>
+      <c r="I5">
+        <v>0.3003230928370446</v>
+      </c>
+      <c r="J5">
+        <v>0.3003230928370446</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.983073</v>
+      </c>
+      <c r="N5">
+        <v>11.949219</v>
+      </c>
+      <c r="O5">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P5">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q5">
+        <v>0.09366992774099998</v>
+      </c>
+      <c r="R5">
+        <v>0.843029349669</v>
+      </c>
+      <c r="S5">
+        <v>0.05014751397781692</v>
+      </c>
+      <c r="T5">
+        <v>0.05014751397781693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05478866666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.164366</v>
+      </c>
+      <c r="I6">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="J6">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.050657</v>
+      </c>
+      <c r="N6">
+        <v>0.151971</v>
+      </c>
+      <c r="O6">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="P6">
+        <v>0.002123644810648064</v>
+      </c>
+      <c r="Q6">
+        <v>0.002775429487333334</v>
+      </c>
+      <c r="R6">
+        <v>0.024978865386</v>
+      </c>
+      <c r="S6">
+        <v>0.001485865233026897</v>
+      </c>
+      <c r="T6">
+        <v>0.001485865233026897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05478866666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.164366</v>
+      </c>
+      <c r="I7">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="J7">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.006255666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.018767</v>
+      </c>
+      <c r="O7">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="P7">
+        <v>0.0421842909114609</v>
+      </c>
+      <c r="Q7">
+        <v>0.05513140630244445</v>
+      </c>
+      <c r="R7">
+        <v>0.496182656722</v>
+      </c>
+      <c r="S7">
+        <v>0.02951537419579333</v>
+      </c>
+      <c r="T7">
+        <v>0.02951537419579333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05478866666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.164366</v>
+      </c>
+      <c r="I8">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="J8">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.813815</v>
+      </c>
+      <c r="N8">
+        <v>56.441445</v>
+      </c>
+      <c r="O8">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="P8">
+        <v>0.7887135162611822</v>
+      </c>
+      <c r="Q8">
+        <v>1.030783838763333</v>
+      </c>
+      <c r="R8">
+        <v>9.277054548870002</v>
+      </c>
+      <c r="S8">
+        <v>0.5518446336952433</v>
+      </c>
+      <c r="T8">
+        <v>0.5518446336952433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05478866666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.164366</v>
+      </c>
+      <c r="I9">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="J9">
+        <v>0.6996769071629554</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.983073</v>
+      </c>
+      <c r="N9">
+        <v>11.949219</v>
+      </c>
+      <c r="O9">
+        <v>0.1669785480167087</v>
+      </c>
+      <c r="P9">
+        <v>0.1669785480167088</v>
+      </c>
+      <c r="Q9">
+        <v>0.218227258906</v>
+      </c>
+      <c r="R9">
+        <v>1.964045330154</v>
+      </c>
+      <c r="S9">
+        <v>0.1168310340388918</v>
+      </c>
+      <c r="T9">
+        <v>0.1168310340388918</v>
       </c>
     </row>
   </sheetData>
